--- a/biology/Botanique/Tortula_ruralis/Tortula_ruralis.xlsx
+++ b/biology/Botanique/Tortula_ruralis/Tortula_ruralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tortula ruralis est une espèce de Bryophytes. Elle est commune dans la dune en région tempérée à climat océanique. Elle a une capacité de reviviscence particulièrement développée. Sa forme déshydratée est légèrement enroulée sur l'axe de la tige, et son hydratation est extrêmement rapide (arrivée de la pluie) : sa vitesse est de l'ordre de la seconde. Le déroulement de l'axe lors de l'hydratation entraîne la projection de grains de sable sur le côté, ce qui permet d'éviter dans une certaine mesure l'ensablement local de l'individu, et assure une photosynthèse dans de meilleures conditions.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 novembre 2018) :
 variété Syntrichia laevipila var. laevipilaeformis (De Not.) J.J. Amann
-Selon Tropicos                                           (16 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tortula ruralis subsp. alaskana (Kindb.) Paris
 sous-espèce Tortula ruralis subsp. calcicola (J.J. Amann) Giacom.
 sous-espèce Tortula ruralis subsp. calcicolens (W.A. Kramer) Düll
